--- a/CBMWebApi/wwwroot/ExcelTempate/计量设备证书.xlsx
+++ b/CBMWebApi/wwwroot/ExcelTempate/计量设备证书.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwwroot\WCBMWebApi\CBMWebApi\wwwroot\ExcelTempate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A18AA7-5900-46E0-ADD9-91F204C96E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8590A410-692E-4FCE-B7C8-E117CD36901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>证书编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,14 +238,6 @@
   </si>
   <si>
     <t>回差技术要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回查检定结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -341,42 +329,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>检定/校准条件及地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被检设备</t>
+  </si>
+  <si>
+    <t>检定结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-C4H10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-C5H12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-C5H12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检定/校准条件及地点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被检设备</t>
-  </si>
-  <si>
-    <t>检定结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n-C4H10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i-C5H12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n-C5H12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书编号</t>
+    <t>证书信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>回差检定结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,14 +522,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,12 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,7 +850,7 @@
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -844,7 +862,8 @@
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -870,294 +889,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="8"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="V2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AC2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BI2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="BJ2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK2" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="U1:U2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:U1"/>
     <mergeCell ref="V1:AR1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BK2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,9 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D468BB60-387F-47BD-8E51-EA95009D99D4}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1182,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1227,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
